--- a/Kazwini/datafixkazwani.xlsx
+++ b/Kazwini/datafixkazwani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Kazwini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F561E76-7860-4811-AFBE-E60018234B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076BCED1-BB44-41A6-AF17-5651E440A0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{4C305163-CB93-432B-9C28-4E49FAEAC5D9}"/>
+    <workbookView xWindow="-11110" yWindow="1690" windowWidth="10040" windowHeight="7820" activeTab="1" xr2:uid="{4C305163-CB93-432B-9C28-4E49FAEAC5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="RT" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="593">
   <si>
     <t>NISA ALISTIANA</t>
   </si>
@@ -159,12 +159,6 @@
     <t>5203094809900003</t>
   </si>
   <si>
-    <t>Bambang</t>
-  </si>
-  <si>
-    <t>5203091505970003</t>
-  </si>
-  <si>
     <t>Mayandawati</t>
   </si>
   <si>
@@ -855,18 +849,6 @@
     <t>5203095708980009</t>
   </si>
   <si>
-    <t>HAEMAH</t>
-  </si>
-  <si>
-    <t>5203084410790002</t>
-  </si>
-  <si>
-    <t>MIRNAWATI</t>
-  </si>
-  <si>
-    <t>5203096412940001</t>
-  </si>
-  <si>
     <t>INAQ JUHSAN</t>
   </si>
   <si>
@@ -1428,9 +1410,6 @@
     <t>5203136712870001</t>
   </si>
   <si>
-    <t>SUHARDI</t>
-  </si>
-  <si>
     <t>5203134107790483</t>
   </si>
   <si>
@@ -1828,6 +1807,9 @@
   </si>
   <si>
     <t>5203135608970002</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -2210,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9C68B1-5757-4DA6-8AE0-CEA3F0CFC9E7}">
-  <dimension ref="A2:C206"/>
+  <dimension ref="A2:C177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A206"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C177" sqref="A51:C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2238,10 +2220,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2249,10 +2231,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2260,54 +2242,54 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2315,43 +2297,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2359,10 +2341,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2370,10 +2352,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -2381,10 +2363,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2392,76 +2374,76 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>67</v>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>69</v>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>71</v>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>73</v>
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2469,10 +2451,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -2480,10 +2462,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2491,10 +2473,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2502,10 +2484,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2513,10 +2495,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -2524,10 +2506,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2535,54 +2517,54 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>91</v>
+      <c r="B31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>93</v>
+      <c r="B32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>95</v>
+      <c r="B33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>97</v>
+      <c r="B34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -2590,10 +2572,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -2601,10 +2583,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -2612,32 +2594,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>105</v>
+      <c r="B38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>107</v>
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -2645,10 +2627,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -2656,10 +2638,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -2667,10 +2649,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -2678,10 +2660,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -2689,10 +2671,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -2700,10 +2682,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -2711,10 +2693,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -2722,10 +2704,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -2733,43 +2715,43 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>137</v>
+      <c r="B49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>139</v>
+      <c r="B50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>141</v>
+      <c r="B51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -2777,10 +2759,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -2788,10 +2770,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -2799,10 +2781,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -2810,10 +2792,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -2821,10 +2803,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -2832,10 +2814,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -2843,21 +2825,21 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>167</v>
+      <c r="B59" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -2865,10 +2847,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -2876,10 +2858,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -2887,10 +2869,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -2898,10 +2880,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -2909,10 +2891,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -2920,10 +2902,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -2931,10 +2913,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -2942,10 +2924,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -2953,10 +2935,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -2964,10 +2946,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -2975,10 +2957,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -2986,10 +2968,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -2997,10 +2979,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -3008,10 +2990,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -3019,10 +3001,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -3030,10 +3012,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -3041,10 +3023,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -3052,10 +3034,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -3063,10 +3045,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -3074,10 +3056,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -3085,10 +3067,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -3096,10 +3078,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -3107,10 +3089,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -3118,10 +3100,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>218</v>
+        <v>116</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -3129,10 +3111,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -3140,10 +3122,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -3151,10 +3133,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -3162,21 +3144,21 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>234</v>
+      <c r="B88" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -3184,10 +3166,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -3195,10 +3177,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -3206,10 +3188,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -3217,10 +3199,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -3228,10 +3210,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -3239,10 +3221,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -3250,10 +3232,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -3261,10 +3243,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>118</v>
+        <v>288</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -3272,54 +3254,54 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>253</v>
+      <c r="B98" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>255</v>
+      <c r="B99" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>257</v>
+      <c r="B100" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>259</v>
+      <c r="B101" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -3327,10 +3309,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -3338,10 +3320,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -3349,10 +3331,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -3360,10 +3342,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -3371,10 +3353,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -3382,10 +3364,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -3393,10 +3375,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -3404,10 +3386,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -3415,10 +3397,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -3426,10 +3408,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -3437,10 +3419,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -3448,10 +3430,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -3459,10 +3441,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -3470,10 +3452,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -3481,10 +3463,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -3492,43 +3474,43 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>303</v>
+      <c r="B118" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>305</v>
+      <c r="B119" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>325</v>
+      <c r="B120" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -3536,10 +3518,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -3547,10 +3529,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -3558,10 +3540,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -3569,10 +3551,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -3580,10 +3562,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -3591,10 +3573,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -3602,10 +3584,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -3613,10 +3595,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -3624,10 +3606,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -3635,10 +3617,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -3646,10 +3628,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -3657,10 +3639,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -3668,10 +3650,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -3679,10 +3661,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -3690,10 +3672,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>355</v>
+        <v>416</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -3701,10 +3683,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -3712,54 +3694,54 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>373</v>
+      <c r="B138" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>375</v>
+      <c r="B139" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>377</v>
+      <c r="B140" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>379</v>
+      <c r="B141" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -3767,10 +3749,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -3778,10 +3760,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -3789,10 +3771,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -3800,10 +3782,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -3811,10 +3793,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -3822,10 +3804,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -3833,10 +3815,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -3844,10 +3826,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -3855,10 +3837,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -3866,10 +3848,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -3877,10 +3859,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -3888,10 +3870,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -3899,10 +3881,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -3910,10 +3892,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -3921,10 +3903,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -3932,10 +3914,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -3943,10 +3925,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -3954,10 +3936,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -3965,10 +3947,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -3976,10 +3958,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -3987,10 +3969,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -3998,10 +3980,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -4009,10 +3991,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -4020,10 +4002,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -4031,10 +4013,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -4042,10 +4024,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -4053,10 +4035,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -4064,10 +4046,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -4075,10 +4057,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -4086,10 +4068,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -4097,10 +4079,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -4108,10 +4090,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -4119,10 +4101,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -4130,10 +4112,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -4141,10 +4123,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>451</v>
+        <v>172</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -4152,329 +4134,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>453</v>
+        <v>582</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202">
-        <v>201</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205">
-        <v>204</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206">
-        <v>205</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -4484,10 +4147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5615F3E1-FD87-408A-B9F7-1E372D46692D}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4496,675 +4159,183 @@
     <col min="3" max="3" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
+      <c r="B16" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>504</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>64</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>67</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>68</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>70</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>72</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>82</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>83</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>86</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>87</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>90</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>101</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>102</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>116</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>119</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>132</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>139</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>142</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>144</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>147</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>149</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>161</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>162</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>163</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>164</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>166</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>171</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>176</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>178</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>180</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>191</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>196</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>197</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>200</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>207</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>208</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>209</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>211</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>212</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>214</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>216</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>221</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>225</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>241</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -5174,10 +4345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54DAC59-D6A2-490F-8FDC-324C9EEC9E77}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5188,68 +4359,156 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>243</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>513</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>244</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>514</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>515</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>247</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>517</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>294</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>519</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>315</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>520</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>521</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>316</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>522</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>523</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -5262,42 +4521,42 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>524</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>525</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>302</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>527</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>318</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5307,10 +4566,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4B30CA-D7C5-4F7B-AD50-7108D5AFFAF0}">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C12"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5321,123 +4580,420 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>528</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>529</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>530</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>531</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>282</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>532</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>533</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>534</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>535</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>304</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>537</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>326</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>539</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>327</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>540</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>541</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>328</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>543</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>330</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>545</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>546</v>
+        <v>264</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>547</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>548</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -5447,10 +5003,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A20D472-8A0D-45B4-91D3-533BC3950F6B}">
-  <dimension ref="A2:C27"/>
+  <dimension ref="A2:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C27"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5461,288 +5017,365 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>245</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>550</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>246</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>552</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>248</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>554</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>555</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>556</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>557</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>558</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>559</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>560</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>268</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>561</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>562</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>270</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>563</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>564</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>272</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>566</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>273</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>568</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>569</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>570</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>571</v>
+        <v>302</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>572</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>280</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>573</v>
+        <v>437</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>574</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>293</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>309</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>323</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>334</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>571</v>
+        <v>519</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>335</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -5752,10 +5385,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B574855-DF8C-4D87-AB94-6C9A15C01F37}">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5766,90 +5399,211 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>590</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>591</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>592</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>593</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>594</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>278</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>595</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>596</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>310</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>597</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>598</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>317</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>594</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>595</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>596</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/Kazwini/datafixkazwani.xlsx
+++ b/Kazwini/datafixkazwani.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Kazwini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076BCED1-BB44-41A6-AF17-5651E440A0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B6D881-B79D-473F-95D2-2CFE046D9C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11110" yWindow="1690" windowWidth="10040" windowHeight="7820" activeTab="1" xr2:uid="{4C305163-CB93-432B-9C28-4E49FAEAC5D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C305163-CB93-432B-9C28-4E49FAEAC5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="RT" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="593">
   <si>
     <t>NISA ALISTIANA</t>
   </si>
@@ -2192,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9C68B1-5757-4DA6-8AE0-CEA3F0CFC9E7}">
-  <dimension ref="A2:C177"/>
+  <dimension ref="A2:D178"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C177" sqref="A51:C177"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4129,7 +4129,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4138,6 +4138,20 @@
       </c>
       <c r="C177" s="1" t="s">
         <v>583</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>5</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D178" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -4149,8 +4163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5615F3E1-FD87-408A-B9F7-1E372D46692D}">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4521,7 +4535,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5387,8 +5401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B574855-DF8C-4D87-AB94-6C9A15C01F37}">
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
